--- a/Kriminalstatistik/Cyberkriminalität_alle_geschädigten_nur_bubble.xlsx
+++ b/Kriminalstatistik/Cyberkriminalität_alle_geschädigten_nur_bubble.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\intra.educa.ch\dfs\UserData\tobias.schlegel\userhome\My Documents\Exploratorium\EXP-Fokus-I\Datenarbeiten\Kriminalstatistik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\intra.educa.ch\dfs\UserData\tobias.schlegel\userhome\My Documents\Interaktive_Grafiken\Interaktive_Grafik_Cyberkriminalität\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C0292-3430-4560-B3C1-3117C9573465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7252544-13FB-4DC1-8E07-444C02133721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{7222DEDE-5403-410B-80B5-EB043450EF41}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" xr2:uid="{7222DEDE-5403-410B-80B5-EB043450EF41}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -732,23 +732,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BCBB94-115C-4F7B-8B13-3DC2F1009F18}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="38.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="38.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -777,7 +778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -827,7 +828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -856,7 +857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -885,7 +886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -914,7 +915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -943,7 +944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -972,7 +973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -1988,7 +1989,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{A4BCBB94-115C-4F7B-8B13-3DC2F1009F18}"/>
+  <autoFilter ref="A1:H43" xr:uid="{A4BCBB94-115C-4F7B-8B13-3DC2F1009F18}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Cyberbetrug"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="subtotal3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
